--- a/4.データベース/テーブル定義書.xlsx
+++ b/4.データベース/テーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\groupA\4.データベース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C92051E7-F9CE-4054-9D02-CBE33BEC256D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD63EFE-1E6F-4FF2-ABB7-EADA6236C5E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1335" windowWidth="13410" windowHeight="11235" firstSheet="2" activeTab="2" xr2:uid="{324F8E8A-A3AA-4083-93E9-0C65FF7ACB0E}"/>
+    <workbookView xWindow="1785" yWindow="180" windowWidth="15150" windowHeight="12900" firstSheet="1" activeTab="6" xr2:uid="{324F8E8A-A3AA-4083-93E9-0C65FF7ACB0E}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -1493,187 +1493,193 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1682,25 +1688,19 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2070,7 +2070,7 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="42" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5"/>
@@ -2082,7 +2082,7 @@
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="42" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="5"/>
@@ -2094,7 +2094,7 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="42" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="5"/>
@@ -2106,7 +2106,7 @@
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="42" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="5"/>
@@ -2118,7 +2118,7 @@
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="48" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="8"/>
@@ -2167,112 +2167,112 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="36" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="79"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
@@ -2283,22 +2283,22 @@
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2306,22 +2306,22 @@
       <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2352,22 +2352,22 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2375,22 +2375,22 @@
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="35" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2398,22 +2398,22 @@
       <c r="A18" s="6">
         <v>5</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="F18" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="37" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2426,20 +2426,20 @@
       <c r="A21" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="35" t="s">
+      <c r="D21" s="39"/>
+      <c r="E21" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2447,37 +2447,37 @@
       <c r="A22" s="9">
         <v>1</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="45" t="s">
+      <c r="D22" s="70"/>
+      <c r="E22" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="46"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>2</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43" t="s">
+      <c r="D23" s="71"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="44"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
@@ -2488,154 +2488,154 @@
       <c r="A26" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>1</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>2</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>3</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="66"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>4</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>5</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="66"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>6</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="66"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>7</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="66"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="55"/>
     </row>
     <row r="34" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>8</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="68"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
@@ -2646,37 +2646,37 @@
       <c r="A37" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="71" t="s">
+      <c r="D37" s="39"/>
+      <c r="E37" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="72"/>
-      <c r="G37" s="47" t="s">
+      <c r="F37" s="50"/>
+      <c r="G37" s="31" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="38">
+      <c r="A38" s="22">
         <v>1</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="69" t="s">
+      <c r="D38" s="52"/>
+      <c r="E38" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="70"/>
-      <c r="G38" s="40" t="s">
+      <c r="F38" s="52"/>
+      <c r="G38" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2689,53 +2689,52 @@
       <c r="A41" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="71" t="s">
+      <c r="D41" s="39"/>
+      <c r="E41" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="72"/>
-      <c r="G41" s="47" t="s">
+      <c r="F41" s="50"/>
+      <c r="G41" s="31" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="38">
+      <c r="A42" s="22">
         <v>1</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="69" t="s">
+      <c r="C42" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="70"/>
-      <c r="E42" s="69" t="s">
+      <c r="D42" s="52"/>
+      <c r="E42" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="70"/>
-      <c r="G42" s="40" t="s">
+      <c r="F42" s="52"/>
+      <c r="G42" s="24" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
@@ -2743,16 +2742,17 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2771,7 +2771,7 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2789,112 +2789,112 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="36" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="79"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
@@ -2905,22 +2905,22 @@
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2928,22 +2928,22 @@
       <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2951,22 +2951,22 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2974,22 +2974,22 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2997,22 +2997,22 @@
       <c r="A17" s="6">
         <v>4</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="37" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3025,20 +3025,20 @@
       <c r="A20" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="35" t="s">
+      <c r="D20" s="39"/>
+      <c r="E20" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3046,37 +3046,37 @@
       <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="45" t="s">
+      <c r="D21" s="70"/>
+      <c r="E21" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="46"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>2</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43" t="s">
+      <c r="D22" s="71"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="44"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
@@ -3087,137 +3087,137 @@
       <c r="A25" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>1</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>2</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>3</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>4</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="66"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>5</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>6</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="66"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>7</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="68"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
@@ -3228,37 +3228,37 @@
       <c r="A35" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="71" t="s">
+      <c r="D35" s="39"/>
+      <c r="E35" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="72"/>
-      <c r="G35" s="47" t="s">
+      <c r="F35" s="50"/>
+      <c r="G35" s="31" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="38">
+      <c r="A36" s="22">
         <v>1</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="70"/>
-      <c r="E36" s="69" t="s">
+      <c r="D36" s="52"/>
+      <c r="E36" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="70"/>
-      <c r="G36" s="40" t="s">
+      <c r="F36" s="52"/>
+      <c r="G36" s="24" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3268,40 +3268,26 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="77"/>
-      <c r="E39" s="78" t="s">
+      <c r="D39" s="46"/>
+      <c r="E39" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="79"/>
-      <c r="G39" s="80" t="s">
+      <c r="F39" s="81"/>
+      <c r="G39" s="47" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="D26:G26"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -3313,6 +3299,20 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="E35:F35"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3349,112 +3349,112 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="36" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="79"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
@@ -3465,22 +3465,22 @@
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3488,22 +3488,22 @@
       <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3511,22 +3511,22 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3534,22 +3534,22 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3557,22 +3557,22 @@
       <c r="A17" s="6">
         <v>4</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="37" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3585,20 +3585,20 @@
       <c r="A20" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="35" t="s">
+      <c r="D20" s="39"/>
+      <c r="E20" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3606,37 +3606,37 @@
       <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="45" t="s">
+      <c r="D21" s="70"/>
+      <c r="E21" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="46"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>2</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43" t="s">
+      <c r="D22" s="71"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="44"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
@@ -3647,120 +3647,120 @@
       <c r="A25" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>1</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>2</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>3</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>4</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="66"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>5</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
     </row>
     <row r="31" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>6</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="68"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
@@ -3771,37 +3771,37 @@
       <c r="A34" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="71" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="47" t="s">
+      <c r="F34" s="50"/>
+      <c r="G34" s="31" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="38">
+      <c r="A35" s="22">
         <v>1</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="69" t="s">
+      <c r="D35" s="52"/>
+      <c r="E35" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="40" t="s">
+      <c r="F35" s="52"/>
+      <c r="G35" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3811,39 +3811,26 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="76" t="s">
+      <c r="C38" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="77"/>
-      <c r="E38" s="78" t="s">
+      <c r="D38" s="46"/>
+      <c r="E38" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="79"/>
-      <c r="G38" s="80" t="s">
+      <c r="F38" s="81"/>
+      <c r="G38" s="47" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="D26:G26"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -3855,6 +3842,19 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3891,112 +3891,112 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="36" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="79"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
@@ -4007,22 +4007,22 @@
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4030,22 +4030,22 @@
       <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4053,22 +4053,22 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4076,22 +4076,22 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4099,22 +4099,22 @@
       <c r="A17" s="6">
         <v>4</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="37" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4127,20 +4127,20 @@
       <c r="A20" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="35" t="s">
+      <c r="D20" s="39"/>
+      <c r="E20" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4148,37 +4148,37 @@
       <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="45" t="s">
+      <c r="D21" s="70"/>
+      <c r="E21" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="46"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>2</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43" t="s">
+      <c r="D22" s="71"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="44"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
@@ -4189,120 +4189,120 @@
       <c r="A25" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>1</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>2</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>3</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>4</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="66"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>5</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
     </row>
     <row r="31" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>6</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="68"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
@@ -4313,37 +4313,37 @@
       <c r="A34" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="71" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="47" t="s">
+      <c r="F34" s="50"/>
+      <c r="G34" s="31" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="38">
+      <c r="A35" s="22">
         <v>1</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="69" t="s">
+      <c r="D35" s="52"/>
+      <c r="E35" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="40" t="s">
+      <c r="F35" s="52"/>
+      <c r="G35" s="24" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4353,39 +4353,26 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="76" t="s">
+      <c r="C38" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="77"/>
-      <c r="E38" s="78" t="s">
+      <c r="D38" s="46"/>
+      <c r="E38" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="79"/>
-      <c r="G38" s="80" t="s">
+      <c r="F38" s="81"/>
+      <c r="G38" s="47" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="D26:G26"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -4397,6 +4384,19 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4433,112 +4433,112 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="36" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="79"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
@@ -4549,22 +4549,22 @@
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4572,22 +4572,22 @@
       <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4595,22 +4595,22 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4618,22 +4618,22 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="35" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4641,22 +4641,22 @@
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4664,22 +4664,22 @@
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="35" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4687,22 +4687,22 @@
       <c r="A19" s="6">
         <v>6</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="37" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4715,41 +4715,41 @@
       <c r="A22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="35" t="s">
+      <c r="D22" s="39"/>
+      <c r="E22" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="38">
+      <c r="A23" s="22">
         <v>1</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="39" t="s">
+      <c r="D23" s="83"/>
+      <c r="E23" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="40"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
@@ -4760,154 +4760,154 @@
       <c r="A26" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>1</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>2</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>3</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="66"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>4</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>5</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="66"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>6</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="66"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>7</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="66"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="55"/>
     </row>
     <row r="34" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>8</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="68"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
@@ -4918,37 +4918,37 @@
       <c r="A37" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="71" t="s">
+      <c r="D37" s="39"/>
+      <c r="E37" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="72"/>
-      <c r="G37" s="47" t="s">
+      <c r="F37" s="50"/>
+      <c r="G37" s="31" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="38">
+      <c r="A38" s="22">
         <v>1</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="69" t="s">
+      <c r="D38" s="52"/>
+      <c r="E38" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="70"/>
-      <c r="G38" s="40" t="s">
+      <c r="F38" s="52"/>
+      <c r="G38" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4961,52 +4961,52 @@
       <c r="A41" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="71" t="s">
+      <c r="D41" s="39"/>
+      <c r="E41" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="72"/>
-      <c r="G41" s="47" t="s">
+      <c r="F41" s="50"/>
+      <c r="G41" s="31" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="38">
+      <c r="A42" s="22">
         <v>1</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="69" t="s">
+      <c r="C42" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="70"/>
-      <c r="E42" s="69" t="s">
+      <c r="D42" s="52"/>
+      <c r="E42" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="70"/>
-      <c r="G42" s="40" t="s">
+      <c r="F42" s="52"/>
+      <c r="G42" s="24" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
@@ -5014,16 +5014,16 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5042,7 +5042,7 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5060,112 +5060,112 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="36" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="79"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
@@ -5176,22 +5176,22 @@
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5199,22 +5199,22 @@
       <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5222,22 +5222,22 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5245,22 +5245,22 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5268,22 +5268,22 @@
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5291,22 +5291,22 @@
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="35" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5314,22 +5314,22 @@
       <c r="A19" s="3">
         <v>6</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="35" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5337,22 +5337,22 @@
       <c r="A20" s="3">
         <v>7</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5360,22 +5360,22 @@
       <c r="A21" s="3">
         <v>8</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5383,22 +5383,22 @@
       <c r="A22" s="6">
         <v>9</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="53" t="s">
+      <c r="G22" s="37" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5411,20 +5411,20 @@
       <c r="A25" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="35" t="s">
+      <c r="D25" s="39"/>
+      <c r="E25" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="47" t="s">
+      <c r="G25" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5432,37 +5432,37 @@
       <c r="A26" s="9">
         <v>1</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="45" t="s">
+      <c r="D26" s="70"/>
+      <c r="E26" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="46"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>2</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43" t="s">
+      <c r="D27" s="71"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="28"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
@@ -5473,137 +5473,137 @@
       <c r="A30" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>1</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="56" t="s">
+      <c r="D31" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>2</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="66"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>3</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="66"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="55"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>4</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="64" t="s">
+      <c r="D34" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="66"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>5</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="66"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="55"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>6</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="64" t="s">
+      <c r="D36" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="66"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="55"/>
     </row>
     <row r="37" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
         <v>7</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="68"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
@@ -5611,21 +5611,21 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="74" t="s">
+      <c r="A40" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="77"/>
-      <c r="E40" s="78" t="s">
+      <c r="D40" s="46"/>
+      <c r="E40" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="79"/>
-      <c r="G40" s="80" t="s">
+      <c r="F40" s="81"/>
+      <c r="G40" s="47" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5638,18 +5638,18 @@
       <c r="A43" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="55"/>
-      <c r="E43" s="71" t="s">
+      <c r="D43" s="39"/>
+      <c r="E43" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="72"/>
-      <c r="G43" s="47" t="s">
+      <c r="F43" s="50"/>
+      <c r="G43" s="31" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5657,18 +5657,18 @@
       <c r="A44" s="9">
         <v>1</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C44" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="86"/>
-      <c r="E44" s="85" t="s">
+      <c r="D44" s="85"/>
+      <c r="E44" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="86"/>
-      <c r="G44" s="46" t="s">
+      <c r="F44" s="85"/>
+      <c r="G44" s="30" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5676,18 +5676,18 @@
       <c r="A45" s="3">
         <v>2</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="84"/>
-      <c r="E45" s="64" t="s">
+      <c r="D45" s="86"/>
+      <c r="E45" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="84"/>
-      <c r="G45" s="42" t="s">
+      <c r="F45" s="86"/>
+      <c r="G45" s="26" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5695,41 +5695,23 @@
       <c r="A46" s="6">
         <v>3</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="58" t="s">
+      <c r="D46" s="71"/>
+      <c r="E46" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="59"/>
-      <c r="G46" s="44" t="s">
+      <c r="F46" s="71"/>
+      <c r="G46" s="28" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -5741,6 +5723,24 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
